--- a/Data Mix/ResultatExcel/PACA.xlsx
+++ b/Data Mix/ResultatExcel/PACA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Thermique</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nucleaire</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Eolien</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Solaire</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Hydraulique</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BioEnergie</t>
         </is>
@@ -495,21 +500,24 @@
         <v>9198006</v>
       </c>
       <c r="D2" t="n">
+        <v>3899198</v>
+      </c>
+      <c r="E2" t="n">
         <v>1551131</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>24333</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>76094</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>2153863</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>93777</v>
       </c>
     </row>
@@ -528,21 +536,24 @@
         <v>17746004</v>
       </c>
       <c r="D3" t="n">
+        <v>7555905</v>
+      </c>
+      <c r="E3" t="n">
         <v>2840254</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>47812</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>168720</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>4320743</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>178376</v>
       </c>
     </row>
@@ -561,21 +572,24 @@
         <v>26020572</v>
       </c>
       <c r="D4" t="n">
+        <v>11329788</v>
+      </c>
+      <c r="E4" t="n">
         <v>4351541</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>69011</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>281743</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>6385200</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>242293</v>
       </c>
     </row>
@@ -594,21 +608,24 @@
         <v>32667814</v>
       </c>
       <c r="D5" t="n">
+        <v>15088632</v>
+      </c>
+      <c r="E5" t="n">
         <v>5330307</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>82827</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>410138</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>8965632</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>299728</v>
       </c>
     </row>
@@ -627,21 +644,24 @@
         <v>38809418</v>
       </c>
       <c r="D6" t="n">
+        <v>18955293</v>
+      </c>
+      <c r="E6" t="n">
         <v>5871837</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>102831</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>588806</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>12037169</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>354650</v>
       </c>
     </row>
@@ -660,21 +680,24 @@
         <v>44667283</v>
       </c>
       <c r="D7" t="n">
+        <v>22250036</v>
+      </c>
+      <c r="E7" t="n">
         <v>6200181</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>124409</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>787816</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>14736112</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>401518</v>
       </c>
     </row>
@@ -693,21 +716,24 @@
         <v>51129586</v>
       </c>
       <c r="D8" t="n">
+        <v>25029176</v>
+      </c>
+      <c r="E8" t="n">
         <v>6511800</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>132967</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>989639</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>16901137</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>493633</v>
       </c>
     </row>
@@ -726,21 +752,24 @@
         <v>57307580</v>
       </c>
       <c r="D9" t="n">
+        <v>27447315</v>
+      </c>
+      <c r="E9" t="n">
         <v>7086365</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>147074</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>1189151</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>18437059</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>587666</v>
       </c>
     </row>
@@ -759,21 +788,24 @@
         <v>63075772</v>
       </c>
       <c r="D10" t="n">
+        <v>30054476</v>
+      </c>
+      <c r="E10" t="n">
         <v>7917424</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>161669</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>1356463</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>19936051</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>682869</v>
       </c>
     </row>
@@ -792,21 +824,24 @@
         <v>69148205</v>
       </c>
       <c r="D11" t="n">
+        <v>32658061</v>
+      </c>
+      <c r="E11" t="n">
         <v>8794556</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>178560</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>1467827</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>21459539</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>757579</v>
       </c>
     </row>
@@ -825,21 +860,24 @@
         <v>76721507</v>
       </c>
       <c r="D12" t="n">
+        <v>35611143</v>
+      </c>
+      <c r="E12" t="n">
         <v>9932800</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>204532</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>1545677</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>23105882</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>822252</v>
       </c>
     </row>
@@ -858,21 +896,24 @@
         <v>85414779</v>
       </c>
       <c r="D13" t="n">
+        <v>38223295</v>
+      </c>
+      <c r="E13" t="n">
         <v>10685719</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>224469</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>1622164</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>24791491</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>899452</v>
       </c>
     </row>
@@ -891,21 +932,24 @@
         <v>571906526</v>
       </c>
       <c r="D14" t="n">
+        <v>268102318</v>
+      </c>
+      <c r="E14" t="n">
         <v>77073915</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>1500494</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>10484238</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>173229878</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>5813793</v>
       </c>
     </row>
@@ -924,21 +968,24 @@
         <v>94056296</v>
       </c>
       <c r="D15" t="n">
+        <v>40957942</v>
+      </c>
+      <c r="E15" t="n">
         <v>11259198</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>240929</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>1691239</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>26767292</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>999284</v>
       </c>
     </row>
@@ -957,21 +1004,24 @@
         <v>101908021</v>
       </c>
       <c r="D16" t="n">
+        <v>43590913</v>
+      </c>
+      <c r="E16" t="n">
         <v>11681781</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>257464</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>1779439</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>28793622</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>1078607</v>
       </c>
     </row>
@@ -990,21 +1040,24 @@
         <v>109319472</v>
       </c>
       <c r="D17" t="n">
+        <v>46512152</v>
+      </c>
+      <c r="E17" t="n">
         <v>12055797</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>274599</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>1962799</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>31042915</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>1176042</v>
       </c>
     </row>
@@ -1023,21 +1076,24 @@
         <v>115469720</v>
       </c>
       <c r="D18" t="n">
+        <v>49389958</v>
+      </c>
+      <c r="E18" t="n">
         <v>12273231</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>293921</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>2160723</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>33391443</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>1270640</v>
       </c>
     </row>
@@ -1056,21 +1112,24 @@
         <v>121390613</v>
       </c>
       <c r="D19" t="n">
+        <v>52232000</v>
+      </c>
+      <c r="E19" t="n">
         <v>12565954</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>317419</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>2398326</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>35594488</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>1355813</v>
       </c>
     </row>
@@ -1089,21 +1148,24 @@
         <v>127217651</v>
       </c>
       <c r="D20" t="n">
+        <v>54311165</v>
+      </c>
+      <c r="E20" t="n">
         <v>12739204</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>328411</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>2632202</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>37186958</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>1424390</v>
       </c>
     </row>
@@ -1122,21 +1184,24 @@
         <v>133561910</v>
       </c>
       <c r="D21" t="n">
+        <v>56931824</v>
+      </c>
+      <c r="E21" t="n">
         <v>12929397</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>346753</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>2875262</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>39256928</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>1523484</v>
       </c>
     </row>
@@ -1155,21 +1220,24 @@
         <v>139660097</v>
       </c>
       <c r="D22" t="n">
+        <v>59102496</v>
+      </c>
+      <c r="E22" t="n">
         <v>13170006</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>358172</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>3132194</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>40818400</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>1623724</v>
       </c>
     </row>
@@ -1188,21 +1256,24 @@
         <v>145516032</v>
       </c>
       <c r="D23" t="n">
+        <v>60997610</v>
+      </c>
+      <c r="E23" t="n">
         <v>13552622</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>373818</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>3328240</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>42043615</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>1699315</v>
       </c>
     </row>
@@ -1221,21 +1292,24 @@
         <v>151499388</v>
       </c>
       <c r="D24" t="n">
+        <v>63223982</v>
+      </c>
+      <c r="E24" t="n">
         <v>14355453</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>389874</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>3487266</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>43205854</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>1785535</v>
       </c>
     </row>
@@ -1254,21 +1328,24 @@
         <v>158336578</v>
       </c>
       <c r="D25" t="n">
+        <v>66225651</v>
+      </c>
+      <c r="E25" t="n">
         <v>15484892</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>404770</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>3567300</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>44888877</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>1879812</v>
       </c>
     </row>
@@ -1287,21 +1364,24 @@
         <v>166719309</v>
       </c>
       <c r="D26" t="n">
+        <v>70085708</v>
+      </c>
+      <c r="E26" t="n">
         <v>17071641</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>436139</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>3651837</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>46946278</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>1979813</v>
       </c>
     </row>
@@ -1320,21 +1400,24 @@
         <v>2708468139</v>
       </c>
       <c r="D27" t="n">
+        <v>1199766037</v>
+      </c>
+      <c r="E27" t="n">
         <v>313287006</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>7023257</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>53635303</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>796396426</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>29424045</v>
       </c>
     </row>
@@ -1353,21 +1436,24 @@
         <v>175749339</v>
       </c>
       <c r="D28" t="n">
+        <v>74011366</v>
+      </c>
+      <c r="E28" t="n">
         <v>18702584</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>460673</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>3761290</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>49009394</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>2077425</v>
       </c>
     </row>
@@ -1386,21 +1472,24 @@
         <v>184189627</v>
       </c>
       <c r="D29" t="n">
+        <v>77817232</v>
+      </c>
+      <c r="E29" t="n">
         <v>20341079</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>484243</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>3890408</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>50932007</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>2169495</v>
       </c>
     </row>
@@ -1419,21 +1508,24 @@
         <v>191932876</v>
       </c>
       <c r="D30" t="n">
+        <v>80999623</v>
+      </c>
+      <c r="E30" t="n">
         <v>21591383</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>504332</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>4072334</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>52557159</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>2274415</v>
       </c>
     </row>
@@ -1452,21 +1544,24 @@
         <v>198138959</v>
       </c>
       <c r="D31" t="n">
+        <v>83285259</v>
+      </c>
+      <c r="E31" t="n">
         <v>22211487</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>521734</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>4313984</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>53871312</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>2366742</v>
       </c>
     </row>
@@ -1485,21 +1580,24 @@
         <v>203829605</v>
       </c>
       <c r="D32" t="n">
+        <v>85668303</v>
+      </c>
+      <c r="E32" t="n">
         <v>22466362</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>544164</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>4593401</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>55598681</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>2465695</v>
       </c>
     </row>
@@ -1518,21 +1616,24 @@
         <v>209594139</v>
       </c>
       <c r="D33" t="n">
+        <v>88136103</v>
+      </c>
+      <c r="E33" t="n">
         <v>22782512</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>557359</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>4872684</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>57357542</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>2566006</v>
       </c>
     </row>
@@ -1551,21 +1652,24 @@
         <v>216401668</v>
       </c>
       <c r="D34" t="n">
+        <v>90345609</v>
+      </c>
+      <c r="E34" t="n">
         <v>23401493</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>571243</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>5171401</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>58522986</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>2678486</v>
       </c>
     </row>
@@ -1584,21 +1688,24 @@
         <v>222756530</v>
       </c>
       <c r="D35" t="n">
+        <v>92097501</v>
+      </c>
+      <c r="E35" t="n">
         <v>23590064</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>581689</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>5439948</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>59683137</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>2802663</v>
       </c>
     </row>
@@ -1617,21 +1724,24 @@
         <v>228631972</v>
       </c>
       <c r="D36" t="n">
+        <v>94414110</v>
+      </c>
+      <c r="E36" t="n">
         <v>24177030</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>601836</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>5667424</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>61061854</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>2905966</v>
       </c>
     </row>
@@ -1650,21 +1760,24 @@
         <v>235091818</v>
       </c>
       <c r="D37" t="n">
+        <v>98049993</v>
+      </c>
+      <c r="E37" t="n">
         <v>25935721</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>619370</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>5832029</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>62652865</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>3010008</v>
       </c>
     </row>
@@ -1683,21 +1796,24 @@
         <v>242187717</v>
       </c>
       <c r="D38" t="n">
+        <v>101445810</v>
+      </c>
+      <c r="E38" t="n">
         <v>27738152</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>639704</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>5981924</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>63954169</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>3131861</v>
       </c>
     </row>
@@ -1716,21 +1832,24 @@
         <v>250164319</v>
       </c>
       <c r="D39" t="n">
+        <v>104194136</v>
+      </c>
+      <c r="E39" t="n">
         <v>29311901</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>646707</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>6064042</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>64911170</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>3260316</v>
       </c>
     </row>
@@ -1749,21 +1868,24 @@
         <v>7975604847</v>
       </c>
       <c r="D40" t="n">
+        <v>3469997119</v>
+      </c>
+      <c r="E40" t="n">
         <v>908823780</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>20779568</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>166931475</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>2282905128</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>90557168</v>
       </c>
     </row>
@@ -1782,21 +1904,24 @@
         <v>258801707</v>
       </c>
       <c r="D41" t="n">
+        <v>107014101</v>
+      </c>
+      <c r="E41" t="n">
         <v>30728327</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>658674</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>6163783</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>66056690</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>3406627</v>
       </c>
     </row>
@@ -1815,21 +1940,24 @@
         <v>266528346</v>
       </c>
       <c r="D42" t="n">
+        <v>110010801</v>
+      </c>
+      <c r="E42" t="n">
         <v>31790906</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
       <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
         <v>680898</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>6305151</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>67666777</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>3567069</v>
       </c>
     </row>
@@ -1848,21 +1976,24 @@
         <v>274302579</v>
       </c>
       <c r="D43" t="n">
+        <v>113496995</v>
+      </c>
+      <c r="E43" t="n">
         <v>32983133</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>704730</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>6522970</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>69551010</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>3735152</v>
       </c>
     </row>
@@ -1881,21 +2012,24 @@
         <v>280478298</v>
       </c>
       <c r="D44" t="n">
+        <v>116989763</v>
+      </c>
+      <c r="E44" t="n">
         <v>34165451</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>729755</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>6775941</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>71430912</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>3887704</v>
       </c>
     </row>
@@ -1914,21 +2048,24 @@
         <v>286313498</v>
       </c>
       <c r="D45" t="n">
+        <v>119822648</v>
+      </c>
+      <c r="E45" t="n">
         <v>34834070</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
       <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>756181</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>7076475</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>73110254</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>4045668</v>
       </c>
     </row>
@@ -1947,21 +2084,24 @@
         <v>291956057</v>
       </c>
       <c r="D46" t="n">
+        <v>123135218</v>
+      </c>
+      <c r="E46" t="n">
         <v>35500394</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>769838</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>7384609</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>75320124</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>4160253</v>
       </c>
     </row>
@@ -1980,21 +2120,24 @@
         <v>298302236</v>
       </c>
       <c r="D47" t="n">
+        <v>126081690</v>
+      </c>
+      <c r="E47" t="n">
         <v>36454755</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
       <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
         <v>786468</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>7717900</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>76816573</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>4305994</v>
       </c>
     </row>
@@ -2013,21 +2156,24 @@
         <v>304456283</v>
       </c>
       <c r="D48" t="n">
+        <v>128270441</v>
+      </c>
+      <c r="E48" t="n">
         <v>37038692</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
       <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>801551</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>8040495</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>77932779</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>4456924</v>
       </c>
     </row>
@@ -2046,21 +2192,24 @@
         <v>310388303</v>
       </c>
       <c r="D49" t="n">
+        <v>131756227</v>
+      </c>
+      <c r="E49" t="n">
         <v>38999351</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
       <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>812467</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>8300021</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>79045918</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>4598470</v>
       </c>
     </row>
@@ -2079,21 +2228,24 @@
         <v>316671420</v>
       </c>
       <c r="D50" t="n">
+        <v>135915181</v>
+      </c>
+      <c r="E50" t="n">
         <v>41826504</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
       <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
         <v>831332</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>8505970</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>80002852</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>4748523</v>
       </c>
     </row>
@@ -2112,21 +2264,24 @@
         <v>323879644</v>
       </c>
       <c r="D51" t="n">
+        <v>140213926</v>
+      </c>
+      <c r="E51" t="n">
         <v>44465205</v>
       </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
       <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>849690</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>8634675</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>81352467</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>4911889</v>
       </c>
     </row>
@@ -2145,21 +2300,24 @@
         <v>332113332</v>
       </c>
       <c r="D52" t="n">
+        <v>145232620</v>
+      </c>
+      <c r="E52" t="n">
         <v>47309709</v>
       </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
       <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
         <v>863808</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>8763932</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>83203491</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>5091680</v>
       </c>
     </row>
@@ -2178,21 +2336,24 @@
         <v>19495401397</v>
       </c>
       <c r="D53" t="n">
+        <v>8437933849</v>
+      </c>
+      <c r="E53" t="n">
         <v>2263744057</v>
       </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
       <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>50804528</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>424054872</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>5467300103</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>232030289</v>
       </c>
     </row>
@@ -2211,21 +2372,24 @@
         <v>341542297</v>
       </c>
       <c r="D54" t="n">
+        <v>150551876</v>
+      </c>
+      <c r="E54" t="n">
         <v>50066125</v>
       </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
       <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>894667</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>8892293</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>85402592</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>5296199</v>
       </c>
     </row>
@@ -2244,21 +2408,24 @@
         <v>348651976</v>
       </c>
       <c r="D55" t="n">
+        <v>153863571</v>
+      </c>
+      <c r="E55" t="n">
         <v>51905388</v>
       </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
       <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
         <v>915037</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>9032211</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>86566255</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>5444680</v>
       </c>
     </row>
@@ -2277,21 +2444,24 @@
         <v>355598666</v>
       </c>
       <c r="D56" t="n">
+        <v>157633949</v>
+      </c>
+      <c r="E56" t="n">
         <v>53713214</v>
       </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
       <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
         <v>931886</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>9268233</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>88111729</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>5608887</v>
       </c>
     </row>
@@ -2310,21 +2480,24 @@
         <v>361614235</v>
       </c>
       <c r="D57" t="n">
+        <v>160369446</v>
+      </c>
+      <c r="E57" t="n">
         <v>54890395</v>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
       <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>959076</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>9572016</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>89162337</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>5785622</v>
       </c>
     </row>
@@ -2343,21 +2516,24 @@
         <v>367624492</v>
       </c>
       <c r="D58" t="n">
+        <v>163311680</v>
+      </c>
+      <c r="E58" t="n">
         <v>55295812</v>
       </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
       <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
         <v>971836</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>9903493</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>91179256</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>5961283</v>
       </c>
     </row>
@@ -2376,21 +2552,24 @@
         <v>373673843</v>
       </c>
       <c r="D59" t="n">
+        <v>166318190</v>
+      </c>
+      <c r="E59" t="n">
         <v>55924724</v>
       </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
       <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
         <v>983016</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>10252726</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>92967944</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>6189780</v>
       </c>
     </row>
@@ -2409,21 +2588,24 @@
         <v>380085683</v>
       </c>
       <c r="D60" t="n">
+        <v>169321117</v>
+      </c>
+      <c r="E60" t="n">
         <v>57135167</v>
       </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
       <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
         <v>1001023</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>10637921</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>94143947</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>6403059</v>
       </c>
     </row>
@@ -2442,21 +2624,24 @@
         <v>386452210</v>
       </c>
       <c r="D61" t="n">
+        <v>171582244</v>
+      </c>
+      <c r="E61" t="n">
         <v>57846713</v>
       </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
       <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>1014902</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>10974843</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>95149093</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>6596693</v>
       </c>
     </row>
@@ -2475,21 +2660,24 @@
         <v>392205335</v>
       </c>
       <c r="D62" t="n">
+        <v>174214800</v>
+      </c>
+      <c r="E62" t="n">
         <v>59119059</v>
       </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
       <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
         <v>1028420</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>11258750</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>96019057</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>6789514</v>
       </c>
     </row>
@@ -2508,21 +2696,24 @@
         <v>398078131</v>
       </c>
       <c r="D63" t="n">
+        <v>177725742</v>
+      </c>
+      <c r="E63" t="n">
         <v>61430510</v>
       </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
       <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
         <v>1047073</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>11523592</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>96764888</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>6959679</v>
       </c>
     </row>
@@ -2541,21 +2732,24 @@
         <v>405412591</v>
       </c>
       <c r="D64" t="n">
+        <v>182161793</v>
+      </c>
+      <c r="E64" t="n">
         <v>64348056</v>
       </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
       <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
         <v>1073793</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>11700451</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>97837703</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>7201790</v>
       </c>
     </row>
@@ -2574,21 +2768,24 @@
         <v>414574411</v>
       </c>
       <c r="D65" t="n">
+        <v>185845611</v>
+      </c>
+      <c r="E65" t="n">
         <v>66487557</v>
       </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
       <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
         <v>1098519</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>11820228</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>99072924</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>7366383</v>
       </c>
     </row>
@@ -2607,21 +2804,24 @@
         <v>43516316664</v>
       </c>
       <c r="D66" t="n">
+        <v>18888767717</v>
+      </c>
+      <c r="E66" t="n">
         <v>5215650834</v>
       </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
       <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
         <v>113528304</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>972946501</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>12046977931</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>539664147</v>
       </c>
     </row>
@@ -2640,21 +2840,24 @@
         <v>422598067</v>
       </c>
       <c r="D67" t="n">
+        <v>188641458</v>
+      </c>
+      <c r="E67" t="n">
         <v>67498657</v>
       </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
       <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
         <v>1120439</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>11951216</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>100556300</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>7514846</v>
       </c>
     </row>
@@ -2673,21 +2876,24 @@
         <v>430969962</v>
       </c>
       <c r="D68" t="n">
+        <v>193354919</v>
+      </c>
+      <c r="E68" t="n">
         <v>69705476</v>
       </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
       <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
         <v>1145100</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>12129410</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>102626904</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>7748029</v>
       </c>
     </row>
@@ -2706,21 +2912,24 @@
         <v>439054516</v>
       </c>
       <c r="D69" t="n">
+        <v>197672289</v>
+      </c>
+      <c r="E69" t="n">
         <v>71382459</v>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
       <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
         <v>1169881</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>12384608</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>104747519</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>7987822</v>
       </c>
     </row>
@@ -2739,21 +2948,24 @@
         <v>445196922</v>
       </c>
       <c r="D70" t="n">
+        <v>200819493</v>
+      </c>
+      <c r="E70" t="n">
         <v>71468287</v>
       </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
       <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
         <v>1186975</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>12701260</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>107191582</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>8271389</v>
       </c>
     </row>
@@ -2772,21 +2984,24 @@
         <v>450930993</v>
       </c>
       <c r="D71" t="n">
+        <v>204064187</v>
+      </c>
+      <c r="E71" t="n">
         <v>71557756</v>
       </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
       <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
         <v>1198231</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>13020740</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>109836415</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>8451045</v>
       </c>
     </row>
@@ -2805,21 +3020,24 @@
         <v>456612777</v>
       </c>
       <c r="D72" t="n">
+        <v>207343949</v>
+      </c>
+      <c r="E72" t="n">
         <v>71729385</v>
       </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
       <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
         <v>1212778</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>13400416</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>112458722</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>8542648</v>
       </c>
     </row>
@@ -2838,21 +3056,24 @@
         <v>462989960</v>
       </c>
       <c r="D73" t="n">
+        <v>209839543</v>
+      </c>
+      <c r="E73" t="n">
         <v>71981017</v>
       </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
       <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
         <v>1222715</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>13834355</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>114099242</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>8702214</v>
       </c>
     </row>
@@ -2871,21 +3092,24 @@
         <v>469232073</v>
       </c>
       <c r="D74" t="n">
+        <v>211941675</v>
+      </c>
+      <c r="E74" t="n">
         <v>72380289</v>
       </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
       <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
         <v>1233877</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>14224941</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>115242533</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>8860035</v>
       </c>
     </row>
@@ -2904,21 +3128,24 @@
         <v>474790871</v>
       </c>
       <c r="D75" t="n">
+        <v>214058144</v>
+      </c>
+      <c r="E75" t="n">
         <v>72912664</v>
       </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
       <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
         <v>1243888</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>14577101</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>116254458</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>9070033</v>
       </c>
     </row>
@@ -2937,21 +3164,24 @@
         <v>480459336</v>
       </c>
       <c r="D76" t="n">
+        <v>217119250</v>
+      </c>
+      <c r="E76" t="n">
         <v>74545364</v>
       </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
       <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
         <v>1265840</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>14801628</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>117294656</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>9211762</v>
       </c>
     </row>
@@ -2970,21 +3200,24 @@
         <v>487298900</v>
       </c>
       <c r="D77" t="n">
+        <v>221145441</v>
+      </c>
+      <c r="E77" t="n">
         <v>76641177</v>
       </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
       <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
         <v>1282404</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>14926307</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>118954333</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>9341220</v>
       </c>
     </row>
@@ -3003,21 +3236,24 @@
         <v>495458832</v>
       </c>
       <c r="D78" t="n">
+        <v>224633594</v>
+      </c>
+      <c r="E78" t="n">
         <v>78171506</v>
       </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
       <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
         <v>1298074</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>15070589</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>120593842</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>9499583</v>
       </c>
     </row>
@@ -3036,21 +3272,24 @@
         <v>92548226537</v>
       </c>
       <c r="D79" t="n">
+        <v>40268169376</v>
+      </c>
+      <c r="E79" t="n">
         <v>11301275705</v>
       </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
       <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
         <v>241636810</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>2108915573</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>25433812368</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>1182528920</v>
       </c>
     </row>
@@ -3069,21 +3308,24 @@
         <v>504779314</v>
       </c>
       <c r="D80" t="n">
+        <v>229065852</v>
+      </c>
+      <c r="E80" t="n">
         <v>80513206</v>
       </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
       <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
         <v>1333944</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>15265670</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>122309529</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>9643503</v>
       </c>
     </row>
@@ -3102,21 +3344,24 @@
         <v>512357088</v>
       </c>
       <c r="D81" t="n">
+        <v>232711454</v>
+      </c>
+      <c r="E81" t="n">
         <v>82140709</v>
       </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
       <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
         <v>1346709</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>15524633</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>123911764</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>9787639</v>
       </c>
     </row>
@@ -3135,21 +3380,24 @@
         <v>519289718</v>
       </c>
       <c r="D82" t="n">
+        <v>235521259</v>
+      </c>
+      <c r="E82" t="n">
         <v>83074829</v>
       </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
       <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
         <v>1367412</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>15904553</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>125234479</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>9939986</v>
       </c>
     </row>
@@ -3168,21 +3416,24 @@
         <v>525782092</v>
       </c>
       <c r="D83" t="n">
+        <v>238128168</v>
+      </c>
+      <c r="E83" t="n">
         <v>83917604</v>
       </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
       <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
         <v>1387257</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>16248483</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>126519890</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>10054934</v>
       </c>
     </row>
@@ -3201,21 +3452,24 @@
         <v>531724426</v>
       </c>
       <c r="D84" t="n">
+        <v>241306665</v>
+      </c>
+      <c r="E84" t="n">
         <v>84954046</v>
       </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
       <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
         <v>1411252</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>16675937</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>128053477</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>10211953</v>
       </c>
     </row>
@@ -3234,21 +3488,24 @@
         <v>537570311</v>
       </c>
       <c r="D85" t="n">
+        <v>244353303</v>
+      </c>
+      <c r="E85" t="n">
         <v>85759821</v>
       </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
       <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
         <v>1421332</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>17127726</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>129708893</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>10335531</v>
       </c>
     </row>
@@ -3267,21 +3524,24 @@
         <v>544215584</v>
       </c>
       <c r="D86" t="n">
+        <v>247462713</v>
+      </c>
+      <c r="E86" t="n">
         <v>86996060</v>
       </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
       <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
         <v>1431260</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>17582633</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>130986558</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>10466202</v>
       </c>
     </row>
@@ -3300,21 +3560,24 @@
         <v>550597724</v>
       </c>
       <c r="D87" t="n">
+        <v>249933853</v>
+      </c>
+      <c r="E87" t="n">
         <v>87687052</v>
       </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
       <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
         <v>1442545</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>18002309</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>132094080</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>10707867</v>
       </c>
     </row>
@@ -3333,21 +3596,24 @@
         <v>556296905</v>
       </c>
       <c r="D88" t="n">
+        <v>252292482</v>
+      </c>
+      <c r="E88" t="n">
         <v>88853712</v>
       </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
       <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
         <v>1456207</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>18357497</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>132754924</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>10870142</v>
       </c>
     </row>
@@ -3366,21 +3632,24 @@
         <v>562098466</v>
       </c>
       <c r="D89" t="n">
+        <v>254983892</v>
+      </c>
+      <c r="E89" t="n">
         <v>90098245</v>
       </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
       <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
         <v>1472649</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>18608659</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>133808710</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>10995629</v>
       </c>
     </row>
@@ -3399,21 +3668,24 @@
         <v>569428167</v>
       </c>
       <c r="D90" t="n">
+        <v>259286970</v>
+      </c>
+      <c r="E90" t="n">
         <v>92159051</v>
       </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
       <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
         <v>1486992</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>18755952</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>135751510</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>11133465</v>
       </c>
     </row>
@@ -3432,21 +3704,24 @@
         <v>577269810</v>
       </c>
       <c r="D91" t="n">
+        <v>263184811</v>
+      </c>
+      <c r="E91" t="n">
         <v>93452632</v>
       </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
       <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
         <v>1505473</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>18913766</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>138025825</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>11287115</v>
       </c>
     </row>
@@ -3465,21 +3740,24 @@
         <v>191587862679</v>
       </c>
       <c r="D92" t="n">
+        <v>83484570174</v>
+      </c>
+      <c r="E92" t="n">
         <v>23642158377</v>
       </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
       <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
         <v>500336652</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>4424798964</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>52426784375</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>2490491806</v>
       </c>
     </row>
@@ -3498,21 +3776,24 @@
         <v>585659744</v>
       </c>
       <c r="D93" t="n">
+        <v>267705325</v>
+      </c>
+      <c r="E93" t="n">
         <v>95328763</v>
       </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
       <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
         <v>1519677</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>19068452</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>140340659</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>11447774</v>
       </c>
     </row>
@@ -3531,21 +3812,24 @@
         <v>592888585</v>
       </c>
       <c r="D94" t="n">
+        <v>271818527</v>
+      </c>
+      <c r="E94" t="n">
         <v>96521451</v>
       </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
       <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
         <v>1535642</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>19313201</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>142862937</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>11585296</v>
       </c>
     </row>
@@ -3564,21 +3848,24 @@
         <v>599876858</v>
       </c>
       <c r="D95" t="n">
+        <v>275992043</v>
+      </c>
+      <c r="E95" t="n">
         <v>97637735</v>
       </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
       <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
         <v>1554033</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>19644055</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>145411171</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>11745049</v>
       </c>
     </row>
@@ -3597,21 +3884,24 @@
         <v>605320043</v>
       </c>
       <c r="D96" t="n">
+        <v>278202731</v>
+      </c>
+      <c r="E96" t="n">
         <v>97819800</v>
       </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
       <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
         <v>1559281</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>20032852</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>146897596</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>11893202</v>
       </c>
     </row>
@@ -3630,21 +3920,24 @@
         <v>610455698</v>
       </c>
       <c r="D97" t="n">
+        <v>281760487</v>
+      </c>
+      <c r="E97" t="n">
         <v>98220909</v>
       </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
       <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
         <v>1575209</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>20477004</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>149437070</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>12050295</v>
       </c>
     </row>
@@ -3663,21 +3956,24 @@
         <v>615815640</v>
       </c>
       <c r="D98" t="n">
+        <v>286181691</v>
+      </c>
+      <c r="E98" t="n">
         <v>99329929</v>
       </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
       <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
         <v>1591250</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>20945911</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>152142979</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>12171622</v>
       </c>
     </row>
@@ -3696,21 +3992,24 @@
         <v>621989794</v>
       </c>
       <c r="D99" t="n">
+        <v>289655863</v>
+      </c>
+      <c r="E99" t="n">
         <v>100645039</v>
       </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
       <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
         <v>1605342</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>21451667</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>153665070</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>12288745</v>
       </c>
     </row>
@@ -3729,21 +4028,24 @@
         <v>628218796</v>
       </c>
       <c r="D100" t="n">
+        <v>292668271</v>
+      </c>
+      <c r="E100" t="n">
         <v>101979016</v>
       </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
       <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
         <v>1617334</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>21923090</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>154736503</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>12412328</v>
       </c>
     </row>
@@ -3762,21 +4064,24 @@
         <v>633833380</v>
       </c>
       <c r="D101" t="n">
+        <v>295011739</v>
+      </c>
+      <c r="E101" t="n">
         <v>102886009</v>
       </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
       <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
         <v>1627868</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>22284387</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>155695501</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>12517974</v>
       </c>
     </row>
@@ -3795,21 +4100,24 @@
         <v>640069998</v>
       </c>
       <c r="D102" t="n">
+        <v>297883529</v>
+      </c>
+      <c r="E102" t="n">
         <v>103712467</v>
       </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
       <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
         <v>1648630</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>22571085</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>157300408</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>12650939</v>
       </c>
     </row>
@@ -3828,21 +4136,24 @@
         <v>646617876</v>
       </c>
       <c r="D103" t="n">
+        <v>301464320</v>
+      </c>
+      <c r="E103" t="n">
         <v>105541911</v>
       </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
       <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
         <v>1673054</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>22779148</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>158687387</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>12782820</v>
       </c>
     </row>
@@ -3861,21 +4172,24 @@
         <v>654916408</v>
       </c>
       <c r="D104" t="n">
+        <v>304979723</v>
+      </c>
+      <c r="E104" t="n">
         <v>107246999</v>
       </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
       <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
         <v>1695561</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>22908287</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>160185541</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>12943335</v>
       </c>
     </row>
@@ -3894,21 +4208,24 @@
         <v>390611388178</v>
       </c>
       <c r="D105" t="n">
+        <v>170412464597</v>
+      </c>
+      <c r="E105" t="n">
         <v>48491186782</v>
       </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
       <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
         <v>1019876185</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>9102997067</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>106670931572</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>5127472991</v>
       </c>
     </row>
@@ -3927,21 +4244,24 @@
         <v>664096575</v>
       </c>
       <c r="D106" t="n">
+        <v>309022150</v>
+      </c>
+      <c r="E106" t="n">
         <v>109094433</v>
       </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
       <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
         <v>1751317</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>23084172</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>161994019</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>13098209</v>
       </c>
     </row>
@@ -3960,21 +4280,24 @@
         <v>671153350</v>
       </c>
       <c r="D107" t="n">
+        <v>312434154</v>
+      </c>
+      <c r="E107" t="n">
         <v>110405821</v>
       </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
       <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
         <v>1789071</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>23298675</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>163710285</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>13230302</v>
       </c>
     </row>
@@ -3993,21 +4316,24 @@
         <v>678342071</v>
       </c>
       <c r="D108" t="n">
+        <v>315708946</v>
+      </c>
+      <c r="E108" t="n">
         <v>111830275</v>
       </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
       <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
         <v>1827397</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>23633818</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>165039843</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>13377613</v>
       </c>
     </row>
@@ -4026,21 +4352,24 @@
         <v>684756815</v>
       </c>
       <c r="D109" t="n">
+        <v>318428607</v>
+      </c>
+      <c r="E109" t="n">
         <v>112990365</v>
       </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
       <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
         <v>1856639</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>24016838</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>166079063</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>13485702</v>
       </c>
     </row>
@@ -4059,21 +4388,24 @@
         <v>690653210</v>
       </c>
       <c r="D110" t="n">
+        <v>321661988</v>
+      </c>
+      <c r="E110" t="n">
         <v>113365152</v>
       </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
       <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
         <v>1892721</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>24505365</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>168296508</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>13602242</v>
       </c>
     </row>
@@ -4092,21 +4424,24 @@
         <v>696486476</v>
       </c>
       <c r="D111" t="n">
+        <v>325012029</v>
+      </c>
+      <c r="E111" t="n">
         <v>113710248</v>
       </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
       <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
         <v>1916218</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>24983147</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>170700362</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>13702054</v>
       </c>
     </row>
@@ -4125,21 +4460,24 @@
         <v>702926180</v>
       </c>
       <c r="D112" t="n">
+        <v>327583822</v>
+      </c>
+      <c r="E112" t="n">
         <v>114076445</v>
       </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
       <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
         <v>1942460</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>25519570</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>172179611</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>13865736</v>
       </c>
     </row>
@@ -4158,21 +4496,24 @@
         <v>709134691</v>
       </c>
       <c r="D113" t="n">
+        <v>329490529</v>
+      </c>
+      <c r="E113" t="n">
         <v>114174996</v>
       </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
       <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
         <v>1969595</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>26022763</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>173308765</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>14014410</v>
       </c>
     </row>
@@ -4191,21 +4532,24 @@
         <v>714913288</v>
       </c>
       <c r="D114" t="n">
+        <v>331357470</v>
+      </c>
+      <c r="E114" t="n">
         <v>114535415</v>
       </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
       <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
         <v>1992364</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>26409558</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>174285746</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>14134387</v>
       </c>
     </row>
@@ -4224,21 +4568,24 @@
         <v>720882494</v>
       </c>
       <c r="D115" t="n">
+        <v>333297265</v>
+      </c>
+      <c r="E115" t="n">
         <v>115152233</v>
       </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
       <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
         <v>2024170</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>26754422</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>175120964</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>14245476</v>
       </c>
     </row>
@@ -4257,21 +4604,24 @@
         <v>727992829</v>
       </c>
       <c r="D116" t="n">
+        <v>336776919</v>
+      </c>
+      <c r="E116" t="n">
         <v>116839938</v>
       </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
       <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
         <v>2054530</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>26971991</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>176541529</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>14368931</v>
       </c>
     </row>
@@ -4290,21 +4640,24 @@
         <v>736828279</v>
       </c>
       <c r="D117" t="n">
+        <v>340097404</v>
+      </c>
+      <c r="E117" t="n">
         <v>118443954</v>
       </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
       <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
         <v>2091219</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>27168487</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>177901330</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>14492414</v>
       </c>
     </row>
@@ -4323,21 +4676,24 @@
         <v>789620942614</v>
       </c>
       <c r="D118" t="n">
+        <v>344725800477</v>
+      </c>
+      <c r="E118" t="n">
         <v>98346992839</v>
       </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
       <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
         <v>2062860071</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>18508362940</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>215387021169</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>10420563458</v>
       </c>
     </row>
